--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shalini/Desktop/VodafonePhase4Demos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ABFEB54-C955-1E4C-A33E-DE3D5AA5A29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A20A617-E78D-974A-80FD-CCC607F05F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" xr2:uid="{23E60CF2-BA3D-0D4A-B2FB-F0AD1044FD00}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" activeTab="1" xr2:uid="{23E60CF2-BA3D-0D4A-B2FB-F0AD1044FD00}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="agenda" sheetId="1" r:id="rId1"/>
+    <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>JS Basics</t>
   </si>
@@ -45,13 +46,34 @@
   </si>
   <si>
     <t>Redux</t>
+  </si>
+  <si>
+    <t>https://ultimatecourses.com/blog/all-about-immutable-arrays-and-objects-in-javascript</t>
+  </si>
+  <si>
+    <t>https://dmitripavlutin.com/5-interesting-uses-javascript-destructuring/</t>
+  </si>
+  <si>
+    <t>Immutability and destructuring</t>
+  </si>
+  <si>
+    <t>https://www.javascripttutorial.net/es6/</t>
+  </si>
+  <si>
+    <t>ES6 introduced</t>
+  </si>
+  <si>
+    <t>Complete javascript</t>
+  </si>
+  <si>
+    <t>https://javascript.info/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +84,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,15 +114,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708569D3-F837-6F42-AA97-EBD801F8FFB5}">
   <dimension ref="C4:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="125" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -539,4 +574,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF839EC-1787-D246-A9FD-DA467FAE016C}">
+  <dimension ref="A2:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{C94FDFBD-E5D6-CB45-88CB-E93049C07C04}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>